--- a/B5/physik/D12/3)Radioaktivität/2_Bindungsenergie/bindungs_energie/bindungsenergie.xlsx
+++ b/B5/physik/D12/3)Radioaktivität/2_Bindungsenergie/bindungs_energie/bindungsenergie.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">Element</t>
   </si>
   <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">Protonenanzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massenanzahl</t>
   </si>
   <si>
     <t xml:space="preserve">Bindungsenergie_pro_Nukleon(MeV)</t>
@@ -276,13 +276,14 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.63"/>
   </cols>
   <sheetData>
